--- a/biology/Zoologie/Bécarde_cendrée/Bécarde_cendrée.xlsx
+++ b/biology/Zoologie/Bécarde_cendrée/Bécarde_cendrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cendr%C3%A9e</t>
+          <t>Bécarde_cendrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachyramphus rufus
 La Bécarde cendrée (Pachyramphus rufus) est une espèce de passereaux de la famille des Tityridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cendr%C3%A9e</t>
+          <t>Bécarde_cendrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cendr%C3%A9e</t>
+          <t>Bécarde_cendrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_cendr%C3%A9e</t>
+          <t>Bécarde_cendrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,15 +580,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 juin 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 juin 2018) :
 sous-espèce Pachyramphus rufus juruanus Gyldenstolpe, 1951
 sous-espèce Pachyramphus rufus rufus (Boddaert, 1783)
-Selon Catalogue of Life                                   (13 juin 2018)[3] :
+Selon Catalogue of Life                                   (13 juin 2018) :
 sous-espèce Pachyramphus rufus juruanus Gyldenstolpe, 1951
 sous-espèce Pachyramphus rufus rufus (Boddaert, 1783)
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[1] :
+Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 sous-espèce Pachyramphus rufus rufus (Boddaert, 1783)
 sous-espèce Pachyramphus rufus juruanus Gyldenstolpe, 1951</t>
         </is>
